--- a/back/public/dealer/files/salesorder/excel/salesorder_128.xlsx
+++ b/back/public/dealer/files/salesorder/excel/salesorder_128.xlsx
@@ -119,7 +119,7 @@
     <t>SALES PERSONNEL</t>
   </si>
   <si>
-    <t>superadminnn</t>
+    <t>alfredo dagonza</t>
   </si>
 </sst>
 </file>
@@ -971,7 +971,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="10">
-        <v>8589</v>
+        <v>2</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>27</v>
@@ -986,7 +986,7 @@
         <v>60000</v>
       </c>
       <c r="I18" s="10">
-        <v>515340000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="12">
-        <v>591947400</v>
+        <v>76727400</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
